--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B97E207-B6AC-4E72-A950-1F8220D8F725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Mes</t>
   </si>
@@ -51,19 +50,19 @@
     <t>Diseño de Casos de Pruebas Gemma (Fundionalidad Reportes) - Cartera (Fundionalidad Administración)</t>
   </si>
   <si>
-    <t>Se presenta error en funcionalidad exportar excel de reportes: Creditos Pagados, Financieras, Fracasos.</t>
-  </si>
-  <si>
     <t>Octubre</t>
   </si>
   <si>
     <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Se presenta error en funcionalidad exportar excel de reportes (Gemma): Creditos Pagados, Financieras, Fracasos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -211,6 +210,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -219,12 +224,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,11 +538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +574,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7">
@@ -585,12 +584,12 @@
         <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="7">
         <v>43368</v>
       </c>
@@ -599,7 +598,7 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="7">
         <v>43369</v>
       </c>
@@ -608,7 +607,7 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="7">
         <v>43370</v>
       </c>
@@ -617,7 +616,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="7">
         <v>43371</v>
       </c>
@@ -626,8 +625,8 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17">
         <v>43372</v>
       </c>
       <c r="C7" s="8"/>
@@ -635,8 +634,8 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="20">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17">
         <v>43373</v>
       </c>
       <c r="C8" s="8"/>
@@ -644,10 +643,10 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16">
         <v>43374</v>
       </c>
       <c r="C9" s="8"/>
@@ -655,8 +654,8 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19">
+      <c r="A10" s="19"/>
+      <c r="B10" s="16">
         <v>43375</v>
       </c>
       <c r="C10" s="8"/>
@@ -664,8 +663,8 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19">
+      <c r="A11" s="19"/>
+      <c r="B11" s="16">
         <v>43376</v>
       </c>
       <c r="C11" s="8"/>
@@ -673,8 +672,8 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16">
         <v>43377</v>
       </c>
       <c r="C12" s="8"/>
@@ -682,8 +681,8 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19">
+      <c r="A13" s="19"/>
+      <c r="B13" s="16">
         <v>43378</v>
       </c>
       <c r="C13" s="8"/>
@@ -691,194 +690,194 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20">
+      <c r="A14" s="19"/>
+      <c r="B14" s="17">
         <v>43379</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20">
+      <c r="A15" s="19"/>
+      <c r="B15" s="17">
         <v>43380</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19">
+      <c r="A16" s="19"/>
+      <c r="B16" s="16">
         <v>43381</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19">
+      <c r="A17" s="19"/>
+      <c r="B17" s="16">
         <v>43382</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16">
         <v>43383</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19">
+      <c r="A19" s="19"/>
+      <c r="B19" s="16">
         <v>43384</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="8"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="11"/>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="7"/>
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>10</v>
+      <c r="A30" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="7"/>
     </row>
   </sheetData>

--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B97E207-B6AC-4E72-A950-1F8220D8F725}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712E9E71-31DA-4535-8A1D-C4CFEA63076D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Mes</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Septiembre</t>
   </si>
   <si>
-    <t>Diseño de Casos de Pruebas Gemma (Fundionalidad Reportes) - Cartera (Fundionalidad Administración)</t>
-  </si>
-  <si>
     <t>Se presenta error en funcionalidad exportar excel de reportes: Creditos Pagados, Financieras, Fracasos.</t>
   </si>
   <si>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diseño de Casos de Pruebas Gemma (Funcionalidad Reportes) - Cartera (Funcionalidad Administración)</t>
+  </si>
+  <si>
+    <t>Se presenta error en funcionalidad exportar excel de reportes: Gestión Comercial, Motivos de Rechazos, Operaciones, Operaciones Detallado.</t>
   </si>
 </sst>
 </file>
@@ -211,6 +214,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -219,12 +228,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +546,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,31 +578,35 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7">
         <v>43367</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="7">
         <v>43368</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="7">
         <v>43369</v>
       </c>
@@ -608,7 +615,7 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="7">
         <v>43370</v>
       </c>
@@ -617,7 +624,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="7">
         <v>43371</v>
       </c>
@@ -626,8 +633,8 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="20">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17">
         <v>43372</v>
       </c>
       <c r="C7" s="8"/>
@@ -635,8 +642,8 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="20">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17">
         <v>43373</v>
       </c>
       <c r="C8" s="8"/>
@@ -644,10 +651,10 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16">
         <v>43374</v>
       </c>
       <c r="C9" s="8"/>
@@ -655,8 +662,8 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19">
+      <c r="A10" s="19"/>
+      <c r="B10" s="16">
         <v>43375</v>
       </c>
       <c r="C10" s="8"/>
@@ -664,8 +671,8 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19">
+      <c r="A11" s="19"/>
+      <c r="B11" s="16">
         <v>43376</v>
       </c>
       <c r="C11" s="8"/>
@@ -673,8 +680,8 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16">
         <v>43377</v>
       </c>
       <c r="C12" s="8"/>
@@ -682,8 +689,8 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19">
+      <c r="A13" s="19"/>
+      <c r="B13" s="16">
         <v>43378</v>
       </c>
       <c r="C13" s="8"/>
@@ -691,194 +698,194 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20">
+      <c r="A14" s="19"/>
+      <c r="B14" s="17">
         <v>43379</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="20">
+      <c r="A15" s="19"/>
+      <c r="B15" s="17">
         <v>43380</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19">
+      <c r="A16" s="19"/>
+      <c r="B16" s="16">
         <v>43381</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19">
+      <c r="A17" s="19"/>
+      <c r="B17" s="16">
         <v>43382</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16">
         <v>43383</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19">
+      <c r="A19" s="19"/>
+      <c r="B19" s="16">
         <v>43384</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="8"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="11"/>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="7"/>
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>10</v>
+      <c r="A30" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="11"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="7"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="7"/>
     </row>
   </sheetData>

--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712E9E71-31DA-4535-8A1D-C4CFEA63076D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50A88C7-87C8-4E24-A9DF-45BEFA34D6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Mes</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Se presenta error en funcionalidad exportar excel de reportes: Gestión Comercial, Motivos de Rechazos, Operaciones, Operaciones Detallado.</t>
+  </si>
+  <si>
+    <t>Diseño de Casos de Pruebas Gemma (Funcionalidad Reportes- Se incia funcionalidad Trabajar con casos) - Cartera (Funcionalidad Administración)</t>
+  </si>
+  <si>
+    <t>Se presenta error en funcionalidad exportar excel de reportes.</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,13 +611,17 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="7">
         <v>43369</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">

--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50A88C7-87C8-4E24-A9DF-45BEFA34D6F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Mes</t>
   </si>
@@ -63,16 +62,16 @@
     <t>Se presenta error en funcionalidad exportar excel de reportes: Gestión Comercial, Motivos de Rechazos, Operaciones, Operaciones Detallado.</t>
   </si>
   <si>
-    <t>Diseño de Casos de Pruebas Gemma (Funcionalidad Reportes- Se incia funcionalidad Trabajar con casos) - Cartera (Funcionalidad Administración)</t>
-  </si>
-  <si>
     <t>Se presenta error en funcionalidad exportar excel de reportes.</t>
+  </si>
+  <si>
+    <t>Diseño de Casos de Pruebas Gemma (Funcionalidad Reportes- Se incia funcionalidad Trabajar con casos) - Cartera (Funcionalidad Reportes)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -548,11 +547,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,19 +616,21 @@
         <v>43369</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="7">
         <v>43370</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D5" s="10"/>
       <c r="E5" s="9"/>
     </row>

--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C720C6-D481-4CA9-9D48-7B7C0E475933}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Mes</t>
   </si>
@@ -66,12 +67,18 @@
   </si>
   <si>
     <t>Diseño de Casos de Pruebas Gemma (Funcionalidad Reportes- Se incia funcionalidad Trabajar con casos) - Cartera (Funcionalidad Reportes)</t>
+  </si>
+  <si>
+    <t>* Problemas para iniciar con el usuario creado, debido al cambio del ambiente test</t>
+  </si>
+  <si>
+    <t>* Inicio de Ejecución de Casos de Prueba en Cartera (Modulo GPS-TMC).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -172,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,7 +239,10 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,18 +557,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="62" customWidth="1"/>
-    <col min="4" max="4" width="65.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -755,100 +765,145 @@
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="16">
+        <v>43385</v>
+      </c>
       <c r="C20" s="8"/>
       <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="17">
+        <v>43386</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="17">
+        <v>43387</v>
+      </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="16">
+        <v>43388</v>
+      </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="16">
+        <v>43389</v>
+      </c>
       <c r="C24" s="15"/>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="16">
+        <v>43390</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="16">
+        <v>43391</v>
+      </c>
       <c r="C26" s="8"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="16">
+        <v>43392</v>
+      </c>
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="17">
+        <v>43393</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+      <c r="B29" s="17">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="16">
+        <v>43395</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="16">
+        <v>43396</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="16">
+        <v>43397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="16">
+        <v>43398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="16">
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="17">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="17">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="16">
+        <v>43402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="16">
+        <v>43403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="16">
+        <v>43404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
       <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
@@ -900,10 +955,9 @@
       <c r="B52" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A29"/>
-    <mergeCell ref="A30:A52"/>
+    <mergeCell ref="A9:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C720C6-D481-4CA9-9D48-7B7C0E475933}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02D41D2F-95F8-4519-974A-94C060D00C16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Mes</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>* Inicio de Ejecución de Casos de Prueba en Cartera (Modulo GPS-TMC).</t>
+  </si>
+  <si>
+    <t>Ejecución de casos de prueba correspondiente a sistema Cartera</t>
   </si>
 </sst>
 </file>
@@ -82,16 +85,8 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -179,27 +174,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -211,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,23 +218,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +553,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C29" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,219 +585,219 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>43367</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="7">
+      <c r="A3" s="19"/>
+      <c r="B3" s="6">
         <v>43368</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="7">
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="6">
         <v>43369</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="7">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="6">
         <v>43370</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="7">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6">
         <v>43371</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16">
         <v>43372</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16">
         <v>43373</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>43374</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16">
+      <c r="A10" s="20"/>
+      <c r="B10" s="15">
         <v>43375</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16">
+      <c r="A11" s="20"/>
+      <c r="B11" s="15">
         <v>43376</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16">
+      <c r="A12" s="20"/>
+      <c r="B12" s="15">
         <v>43377</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16">
+      <c r="A13" s="20"/>
+      <c r="B13" s="15">
         <v>43378</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="17">
+      <c r="A14" s="20"/>
+      <c r="B14" s="16">
         <v>43379</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="17">
+      <c r="A15" s="20"/>
+      <c r="B15" s="16">
         <v>43380</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="16">
+      <c r="A16" s="20"/>
+      <c r="B16" s="15">
         <v>43381</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="16">
+      <c r="A17" s="20"/>
+      <c r="B17" s="15">
         <v>43382</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="16">
+      <c r="A18" s="20"/>
+      <c r="B18" s="15">
         <v>43383</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="16">
+      <c r="A19" s="20"/>
+      <c r="B19" s="15">
         <v>43384</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="16">
+      <c r="A20" s="20"/>
+      <c r="B20" s="15">
         <v>43385</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17">
+      <c r="A21" s="20"/>
+      <c r="B21" s="16">
         <v>43386</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17">
+      <c r="A22" s="20"/>
+      <c r="B22" s="16">
         <v>43387</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="16">
+      <c r="A23" s="20"/>
+      <c r="B23" s="15">
         <v>43388</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16">
+      <c r="A24" s="20"/>
+      <c r="B24" s="15">
         <v>43389</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="16">
+      <c r="A25" s="20"/>
+      <c r="B25" s="15">
         <v>43390</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
@@ -813,146 +805,166 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="16">
+      <c r="A26" s="20"/>
+      <c r="B26" s="15">
         <v>43391</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="16">
+      <c r="A27" s="20"/>
+      <c r="B27" s="15">
         <v>43392</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17">
+      <c r="A28" s="20"/>
+      <c r="B28" s="16">
         <v>43393</v>
       </c>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17">
+      <c r="A29" s="20"/>
+      <c r="B29" s="16">
         <v>43394</v>
       </c>
+      <c r="C29" s="7"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="16">
+      <c r="A30" s="20"/>
+      <c r="B30" s="15">
         <v>43395</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="16">
+      <c r="A31" s="20"/>
+      <c r="B31" s="15">
         <v>43396</v>
       </c>
+      <c r="C31" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="16">
+      <c r="A32" s="20"/>
+      <c r="B32" s="15">
         <v>43397</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="16">
+      <c r="C32" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="15">
         <v>43398</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="16">
+      <c r="C33" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="15">
         <v>43399</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17">
+      <c r="C34" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="16">
         <v>43400</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17">
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="B36" s="16">
         <v>43401</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="16">
+    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
+      <c r="B37" s="15">
         <v>43402</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="16">
+    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="20"/>
+      <c r="B38" s="15">
         <v>43403</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="16">
+    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="20"/>
+      <c r="B39" s="15">
         <v>43404</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="325.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+    <row r="40" spans="1:3" ht="325.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="7"/>
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="10"/>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="7"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="10"/>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="7"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="7"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{02D41D2F-95F8-4519-974A-94C060D00C16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C85050B5-D08E-4722-AAA5-DA2B8A0D089A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Mes</t>
   </si>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C29" sqref="C28:C29"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,17 +899,26 @@
       <c r="B37" s="15">
         <v>43402</v>
       </c>
+      <c r="C37" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="15">
         <v>43403</v>
       </c>
+      <c r="C38" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="15">
         <v>43404</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="325.5" x14ac:dyDescent="0.25">

--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C85050B5-D08E-4722-AAA5-DA2B8A0D089A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9871CEAA-5B54-4BDC-9206-355E24BCE622}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Mes</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Octubre</t>
   </si>
   <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
     <t>Diseño de Casos de Pruebas Gemma (Funcionalidad Reportes) - Cartera (Funcionalidad Administración)</t>
   </si>
   <si>
@@ -76,6 +73,15 @@
   </si>
   <si>
     <t>Ejecución de casos de prueba correspondiente a sistema Cartera</t>
+  </si>
+  <si>
+    <t>En horas de la tarde, se presentó inconvenientes con la BD de sistema Cartera, lo que ocasionó que no fuera posible la continuación de la ejecución de las pruebas</t>
+  </si>
+  <si>
+    <t>Configuración de herramientas para la automatización de pruebas funcionales, diseño de casos de gemma</t>
+  </si>
+  <si>
+    <t>Automatización de pruebas funcionales sistema Cartera, diseño de casos de gemma, pruebas de humo (versión evo 3 gemma)</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,12 +140,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,9 +203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -221,10 +218,10 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -233,7 +230,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:C39"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,14 +582,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6">
         <v>43367</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
@@ -600,44 +597,44 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="6">
         <v>43368</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="6">
         <v>43369</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="6">
         <v>43370</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="6">
         <v>43371</v>
       </c>
@@ -646,8 +643,8 @@
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16">
+      <c r="A7" s="18"/>
+      <c r="B7" s="15">
         <v>43372</v>
       </c>
       <c r="C7" s="7"/>
@@ -655,8 +652,8 @@
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16">
+      <c r="A8" s="18"/>
+      <c r="B8" s="15">
         <v>43373</v>
       </c>
       <c r="C8" s="7"/>
@@ -664,10 +661,10 @@
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>43374</v>
       </c>
       <c r="C9" s="7"/>
@@ -675,8 +672,8 @@
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="14">
         <v>43375</v>
       </c>
       <c r="C10" s="7"/>
@@ -684,8 +681,8 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="14">
         <v>43376</v>
       </c>
       <c r="C11" s="7"/>
@@ -693,8 +690,8 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="15">
+      <c r="A12" s="19"/>
+      <c r="B12" s="14">
         <v>43377</v>
       </c>
       <c r="C12" s="7"/>
@@ -702,8 +699,8 @@
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="15">
+      <c r="A13" s="19"/>
+      <c r="B13" s="14">
         <v>43378</v>
       </c>
       <c r="C13" s="7"/>
@@ -711,269 +708,395 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="16">
+      <c r="A14" s="19"/>
+      <c r="B14" s="15">
         <v>43379</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="16">
+      <c r="A15" s="19"/>
+      <c r="B15" s="15">
         <v>43380</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="15">
+      <c r="A16" s="19"/>
+      <c r="B16" s="14">
         <v>43381</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="15">
+      <c r="A17" s="19"/>
+      <c r="B17" s="14">
         <v>43382</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15">
+      <c r="A18" s="19"/>
+      <c r="B18" s="14">
         <v>43383</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="15">
+      <c r="A19" s="19"/>
+      <c r="B19" s="14">
         <v>43384</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="15">
+      <c r="A20" s="19"/>
+      <c r="B20" s="14">
         <v>43385</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="16">
+      <c r="A21" s="19"/>
+      <c r="B21" s="15">
         <v>43386</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16">
+      <c r="A22" s="19"/>
+      <c r="B22" s="15">
         <v>43387</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="14">
         <v>43388</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="14">
         <v>43389</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="14">
         <v>43390</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>15</v>
+      <c r="C25" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="14">
         <v>43391</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="14">
+        <v>43392</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="15">
+        <v>43393</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="15">
+        <v>43394</v>
+      </c>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="14">
+        <v>43395</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="14">
+        <v>43396</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="14">
+        <v>43397</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="14">
+        <v>43398</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="14">
+        <v>43399</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="15">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="15">
+        <v>43401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="14">
+        <v>43402</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="14">
+        <v>43403</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="14">
+        <v>43404</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="15">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="15">
+        <v>43406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="15">
+        <v>43407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="15">
+        <v>43408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14">
+        <v>43409</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="14">
+        <v>43410</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="14">
+        <v>43411</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="15">
-        <v>43392</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="16">
-        <v>43393</v>
-      </c>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="16">
-        <v>43394</v>
-      </c>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="15">
-        <v>43395</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="15">
-        <v>43396</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="15">
-        <v>43397</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="15">
-        <v>43398</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="15">
-        <v>43399</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="16">
-        <v>43400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="16">
-        <v>43401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="15">
-        <v>43402</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="15">
-        <v>43403</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="15">
-        <v>43404</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="325.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="10"/>
-    </row>
-    <row r="41" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="10"/>
-    </row>
-    <row r="46" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="14">
+        <v>43412</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="14">
+        <v>43413</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="15">
+        <v>43414</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="10"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="15">
+        <v>43415</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="14">
+        <v>43416</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="14">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
+        <v>43418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="14">
+        <v>43419</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
+        <v>43420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="15">
+        <v>43421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="15">
+        <v>43422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="14">
+        <v>43423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="14">
+        <v>43424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="14">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="14">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="14">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="15">
+        <v>43428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="15">
+        <v>43429</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
+        <v>43430</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="14">
+        <v>43431</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="14">
+        <v>43432</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="14">
+        <v>43433</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="14">
+        <v>43434</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9871CEAA-5B54-4BDC-9206-355E24BCE622}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81395367-ACF9-4A6F-A193-DD8668C914C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Mes</t>
   </si>
@@ -82,6 +82,34 @@
   </si>
   <si>
     <t>Automatización de pruebas funcionales sistema Cartera, diseño de casos de gemma, pruebas de humo (versión evo 3 gemma)</t>
+  </si>
+  <si>
+    <t>En los casos de prueba Cartera, se tiene una funcionalidad que según desarrollo no es utilizada y al agregar datos, usando el boton no se observan cambios en los mismos de los mismos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Casos ya definidos en Administracion que ya estan en Procesos, eliminar de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cartera: 73, 74, 75. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verificar</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -91,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +153,13 @@
     <font>
       <sz val="28"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -248,6 +283,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3514287</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>552385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDB6E67-05E0-4A92-B459-4CAA63E4DEEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029575" y="18030825"/>
+          <a:ext cx="3504762" cy="523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,85 +1074,91 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="15">
         <v>43414</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="15">
         <v>43415</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="14">
         <v>43416</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B52" s="14">
         <v>43417</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="14">
         <v>43418</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>43419</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B55" s="14">
         <v>43420</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="15">
         <v>43421</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="15">
         <v>43422</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B58" s="14">
         <v>43423</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B59" s="14">
         <v>43424</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="14">
         <v>43425</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B61" s="14">
         <v>43426</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="14">
         <v>43427</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B63" s="15">
         <v>43428</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B64" s="15">
         <v>43429</v>
       </c>
@@ -1105,5 +1195,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81395367-ACF9-4A6F-A193-DD8668C914C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F6CF663A-CB4E-4DEF-8EF6-F95F5E4FC384}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Mes</t>
   </si>
@@ -110,6 +110,9 @@
       </rPr>
       <t>Verificar</t>
     </r>
+  </si>
+  <si>
+    <t>Se inicia ejecución de pruebas en Cartera</t>
   </si>
 </sst>
 </file>
@@ -633,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,6 +929,9 @@
       <c r="C30" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>

--- a/Bitacora Global QA.xlsx
+++ b/Bitacora Global QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Global\Global-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81395367-ACF9-4A6F-A193-DD8668C914C1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDDEA12-5C85-47FE-A412-70D4260F2064}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,7 +634,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
